--- a/hw2/data/codebook.xlsx
+++ b/hw2/data/codebook.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdpeng/MAAIT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woody\Google Drive\github_repos\826_Advanced_Data_Analysis\hw2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A46A883-0397-4AF6-9DAC-D02726FC44E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25180" windowHeight="17520"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +20,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -629,7 +630,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -976,22 +977,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>86</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1042,7 +1043,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1098,7 +1099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1151,7 +1152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1173,7 +1174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>156</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>157</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>158</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>159</v>
       </c>
@@ -1243,7 +1244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>160</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>161</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -1315,7 +1316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1351,7 +1352,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1393,7 +1394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1463,7 +1464,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1491,7 +1492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>183</v>
       </c>
@@ -1503,7 +1504,7 @@
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1573,7 +1574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>70</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>99</v>
       </c>
@@ -1629,7 +1630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>192</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>162</v>
       </c>
@@ -1657,7 +1658,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -1671,7 +1672,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>181</v>
       </c>
@@ -1697,7 +1698,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -1723,7 +1724,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>107</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>178</v>
       </c>
@@ -1784,7 +1785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -1798,7 +1799,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>111</v>
       </c>
@@ -1831,7 +1832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -1842,7 +1843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>140</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>141</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>142</v>
       </c>
@@ -1926,7 +1927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>145</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>186</v>
       </c>
@@ -1991,7 +1992,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>187</v>
       </c>
@@ -2000,7 +2001,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>188</v>
       </c>
@@ -2009,7 +2010,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>113</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>114</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>115</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>117</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>194</v>
       </c>
